--- a/scimagojr/scimagojr_2007.xlsx
+++ b/scimagojr/scimagojr_2007.xlsx
@@ -317,15 +317,15 @@
     <t>Cameroon</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -335,30 +335,30 @@
     <t>Azerbaijan</t>
   </si>
   <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Luxembourg</t>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Macedonia</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -380,24 +380,24 @@
     <t>Botswana</t>
   </si>
   <si>
+    <t>Macao</t>
+  </si>
+  <si>
     <t>Moldova</t>
   </si>
   <si>
-    <t>Macao</t>
-  </si>
-  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
     <t>Palestine</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
@@ -416,12 +416,12 @@
     <t>Benin</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -455,15 +455,15 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
@@ -476,18 +476,18 @@
     <t>Myanmar</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Albania</t>
   </si>
   <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
@@ -506,12 +506,12 @@
     <t>Niger</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
     <t>French Polynesia</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -521,12 +521,12 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>Reunion</t>
   </si>
   <si>
@@ -536,21 +536,21 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -572,12 +572,12 @@
     <t>Haïti</t>
   </si>
   <si>
+    <t>North Korea</t>
+  </si>
+  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
@@ -593,22 +593,25 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Chad</t>
+    <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Faroe Islands</t>
@@ -617,7 +620,7 @@
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Suriname</t>
+    <t>Virgin Islands (British)</t>
   </si>
   <si>
     <t>Andorra</t>
@@ -626,13 +629,13 @@
     <t>Palau</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Gibraltar</t>
@@ -641,64 +644,64 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
     <t>Belize</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Turkmenistan</t>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
+    <t>Cape Verde</t>
   </si>
   <si>
     <t>Cook Islands</t>
@@ -707,9 +710,6 @@
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Niue</t>
   </si>
   <si>
@@ -725,34 +725,34 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>Saint Pierre and Miquelon</t>
   </si>
   <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
     <t>Aruba</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
   </si>
 </sst>
 </file>
@@ -896,22 +896,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>536426</v>
+        <v>543943</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>467734</v>
+        <v>469050</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>20985780</v>
+        <v>23509932</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8981977</v>
+        <v>9744934</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>39.12</v>
+        <v>43.22</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -925,22 +925,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>223383</v>
+        <v>222943</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>221082</v>
+        <v>221145</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3364952</v>
+        <v>3717843</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1798961</v>
+        <v>1970829</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>15.06</v>
+        <v>16.68</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -954,22 +954,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>156171</v>
+        <v>157611</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>129358</v>
+        <v>129869</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5869958</v>
+        <v>6609444</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1244069</v>
+        <v>1344397</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>37.59</v>
+        <v>41.94</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -983,22 +983,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>132835</v>
+        <v>133436</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>121427</v>
+        <v>122165</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4496159</v>
+        <v>5000263</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1003729</v>
+        <v>1068313</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>33.85</v>
+        <v>37.47</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1012,22 +1012,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>124289</v>
+        <v>124522</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>119471</v>
+        <v>120028</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2971656</v>
+        <v>3276541</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>705915</v>
+        <v>746293</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>23.91</v>
+        <v>26.31</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1041,22 +1041,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>92794</v>
+        <v>92965</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>86019</v>
+        <v>86318</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3042120</v>
+        <v>3372021</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>591271</v>
+        <v>625862</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>32.78</v>
+        <v>36.27</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1070,22 +1070,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>79083</v>
+        <v>79926</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>70783</v>
+        <v>70991</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3019577</v>
+        <v>3391590</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>486334</v>
+        <v>523185</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>38.18</v>
+        <v>42.43</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1099,22 +1099,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>75281</v>
+        <v>75256</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>68884</v>
+        <v>69013</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2398035</v>
+        <v>2646892</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>500138</v>
+        <v>533898</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>31.85</v>
+        <v>35.17</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1128,22 +1128,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>58713</v>
+        <v>58684</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>54130</v>
+        <v>54203</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1820099</v>
+        <v>2020817</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>372633</v>
+        <v>395317</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>31</v>
+        <v>34.44</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1157,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>55045</v>
+        <v>55381</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>48702</v>
+        <v>48885</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2018076</v>
+        <v>2275981</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>387041</v>
+        <v>416601</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>36.66</v>
+        <v>41.1</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1186,22 +1186,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>52951</v>
+        <v>53051</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>49550</v>
+        <v>49684</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1142401</v>
+        <v>1292834</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>374517</v>
+        <v>425086</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>21.57</v>
+        <v>24.37</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1215,22 +1215,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>48505</v>
+        <v>48405</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>47381</v>
+        <v>47437</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1079125</v>
+        <v>1192514</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>190444</v>
+        <v>199559</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.25</v>
+        <v>24.64</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1244,22 +1244,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41484</v>
+        <v>41690</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>37007</v>
+        <v>37109</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1941789</v>
+        <v>2174959</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>265030</v>
+        <v>279865</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>46.81</v>
+        <v>52.17</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1273,22 +1273,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>37901</v>
+        <v>37925</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>36147</v>
+        <v>36242</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>829946</v>
+        <v>926093</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>282612</v>
+        <v>306230</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>21.9</v>
+        <v>24.42</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1302,22 +1302,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>36585</v>
+        <v>36612</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>35821</v>
+        <v>35912</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>497826</v>
+        <v>552389</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>149117</v>
+        <v>162139</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>13.61</v>
+        <v>15.09</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1331,22 +1331,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>32188</v>
+        <v>32123</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>31257</v>
+        <v>31287</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>712821</v>
+        <v>787490</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>124113</v>
+        <v>128513</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>22.15</v>
+        <v>24.51</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1360,22 +1360,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>30344</v>
+        <v>30311</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>27554</v>
+        <v>27600</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1413763</v>
+        <v>1579604</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>160470</v>
+        <v>169372</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>46.59</v>
+        <v>52.11</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1389,22 +1389,22 @@
         <v>29</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>27220</v>
+        <v>27238</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>26354</v>
+        <v>26409</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>493385</v>
+        <v>540042</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>103376</v>
+        <v>109114</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>18.13</v>
+        <v>19.83</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1418,22 +1418,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>26851</v>
+        <v>26871</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24865</v>
+        <v>24930</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1138491</v>
+        <v>1260160</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>146183</v>
+        <v>152576</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>42.4</v>
+        <v>46.9</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1447,22 +1447,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>25675</v>
+        <v>25615</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>24296</v>
+        <v>24318</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>569063</v>
+        <v>642628</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>107564</v>
+        <v>117361</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>22.16</v>
+        <v>25.09</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1476,22 +1476,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>22649</v>
+        <v>22726</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>20685</v>
+        <v>20742</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>911653</v>
+        <v>1011858</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>104854</v>
+        <v>109609</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>40.25</v>
+        <v>44.52</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1505,22 +1505,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>16840</v>
+        <v>16913</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>15337</v>
+        <v>15387</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>618098</v>
+        <v>685280</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>70982</v>
+        <v>75344</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>36.7</v>
+        <v>40.52</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1534,22 +1534,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>16486</v>
+        <v>16553</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>15096</v>
+        <v>15167</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>579924</v>
+        <v>645125</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>64855</v>
+        <v>68100</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>35.18</v>
+        <v>38.97</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1563,22 +1563,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>15647</v>
+        <v>15633</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>14418</v>
+        <v>14446</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>433064</v>
+        <v>483584</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>56946</v>
+        <v>60624</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>27.68</v>
+        <v>30.93</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1592,22 +1592,22 @@
         <v>35</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>15350</v>
+        <v>15330</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>14937</v>
+        <v>14968</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>305026</v>
+        <v>340842</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>98047</v>
+        <v>104588</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>19.87</v>
+        <v>22.23</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1621,22 +1621,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>15192</v>
+        <v>15223</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>13776</v>
+        <v>13799</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>724166</v>
+        <v>810390</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>83050</v>
+        <v>87891</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>47.67</v>
+        <v>53.23</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1650,22 +1650,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>14329</v>
+        <v>14375</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>13365</v>
+        <v>13394</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>540694</v>
+        <v>599837</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>67936</v>
+        <v>71419</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>37.73</v>
+        <v>41.73</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1679,22 +1679,22 @@
         <v>12</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>13734</v>
+        <v>13706</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>12720</v>
+        <v>12726</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>512495</v>
+        <v>576966</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>50551</v>
+        <v>52849</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>37.32</v>
+        <v>42.1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1708,22 +1708,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>13445</v>
+        <v>13450</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>13038</v>
+        <v>13073</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>272173</v>
+        <v>305900</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>52488</v>
+        <v>55166</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>20.24</v>
+        <v>22.74</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1737,22 +1737,22 @@
         <v>27</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>13181</v>
+        <v>13187</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>12566</v>
+        <v>12613</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>279830</v>
+        <v>313002</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>53336</v>
+        <v>58089</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>21.23</v>
+        <v>23.74</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1766,22 +1766,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>12673</v>
+        <v>12718</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>11511</v>
+        <v>11544</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>488551</v>
+        <v>546429</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>64217</v>
+        <v>68433</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>38.55</v>
+        <v>42.97</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1795,22 +1795,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>11959</v>
+        <v>12014</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>10998</v>
+        <v>11013</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>402709</v>
+        <v>448615</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>36251</v>
+        <v>37710</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>33.67</v>
+        <v>37.34</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1824,22 +1824,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>11037</v>
+        <v>11066</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>10429</v>
+        <v>10467</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>352112</v>
+        <v>395412</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>54696</v>
+        <v>58471</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>31.9</v>
+        <v>35.73</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1853,22 +1853,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10325</v>
+        <v>10430</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>9150</v>
+        <v>9179</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>367381</v>
+        <v>417707</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>43851</v>
+        <v>47202</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>35.58</v>
+        <v>40.05</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1882,22 +1882,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>9540</v>
+        <v>9657</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>8578</v>
+        <v>8664</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>264208</v>
+        <v>298868</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>53980</v>
+        <v>59175</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>27.69</v>
+        <v>30.95</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1911,22 +1911,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>9088</v>
+        <v>9128</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>7988</v>
+        <v>8022</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>326364</v>
+        <v>363132</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>29822</v>
+        <v>31404</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>35.91</v>
+        <v>39.78</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1940,22 +1940,22 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>8655</v>
+        <v>8679</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>8183</v>
+        <v>8200</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>221612</v>
+        <v>245583</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>27799</v>
+        <v>29563</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>25.61</v>
+        <v>28.3</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1969,22 +1969,22 @@
         <v>27</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>8245</v>
+        <v>8266</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>7811</v>
+        <v>7837</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>224958</v>
+        <v>250436</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>41779</v>
+        <v>45168</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>27.28</v>
+        <v>30.3</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1998,22 +1998,22 @@
         <v>29</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>6941</v>
+        <v>6983</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>6816</v>
+        <v>6867</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>84434</v>
+        <v>93782</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>19704</v>
+        <v>21354</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>12.16</v>
+        <v>13.43</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2027,22 +2027,22 @@
         <v>29</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>6796</v>
+        <v>6820</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>6622</v>
+        <v>6655</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>94132</v>
+        <v>104273</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>18004</v>
+        <v>18924</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>13.85</v>
+        <v>15.29</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2056,22 +2056,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>6455</v>
+        <v>6462</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>181593</v>
+        <v>203420</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>24755</v>
+        <v>26794</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>26.93</v>
+        <v>30.17</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2085,22 +2085,22 @@
         <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>5993</v>
+        <v>5991</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>5828</v>
+        <v>5839</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>122994</v>
+        <v>139235</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>20653</v>
+        <v>22969</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>20.52</v>
+        <v>23.24</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2114,22 +2114,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>5401</v>
+        <v>5426</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>5157</v>
+        <v>5168</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>108300</v>
+        <v>123735</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>22473</v>
+        <v>24269</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>20.05</v>
+        <v>22.8</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2143,22 +2143,22 @@
         <v>27</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>5390</v>
+        <v>5381</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>5096</v>
+        <v>5106</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>145306</v>
+        <v>161624</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>27585</v>
+        <v>29658</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>26.96</v>
+        <v>30.04</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2172,22 +2172,22 @@
         <v>29</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>4686</v>
+        <v>4678</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>4475</v>
+        <v>4480</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>68982</v>
+        <v>76606</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>12045</v>
+        <v>12886</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>14.72</v>
+        <v>16.38</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2201,22 +2201,22 @@
         <v>12</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>4366</v>
+        <v>4358</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>4153</v>
+        <v>4164</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>83582</v>
+        <v>96098</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>19316</v>
+        <v>21461</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>19.14</v>
+        <v>22.05</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2230,22 +2230,22 @@
         <v>29</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>4199</v>
+        <v>4195</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>4068</v>
+        <v>4072</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>83314</v>
+        <v>93151</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>11336</v>
+        <v>11900</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>19.84</v>
+        <v>22.21</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2259,22 +2259,22 @@
         <v>29</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>94801</v>
+        <v>105840</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>13762</v>
+        <v>14452</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>23.44</v>
+        <v>26.18</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2288,22 +2288,22 @@
         <v>51</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>3693</v>
+        <v>3726</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>3596</v>
+        <v>3605</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>59281</v>
+        <v>68798</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>12823</v>
+        <v>14604</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>16.05</v>
+        <v>18.46</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2317,22 +2317,22 @@
         <v>29</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>3537</v>
+        <v>3545</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>62160</v>
+        <v>69751</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>7784</v>
+        <v>8271</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>17.03</v>
+        <v>19.12</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2346,22 +2346,22 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>55226</v>
+        <v>62720</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>10461</v>
+        <v>11390</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>17.86</v>
+        <v>20.28</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2375,22 +2375,22 @@
         <v>35</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>2819</v>
+        <v>2824</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>55155</v>
+        <v>62357</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>7960</v>
+        <v>8920</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>18.58</v>
+        <v>21.02</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2404,22 +2404,22 @@
         <v>29</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2661</v>
+        <v>2703</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2540</v>
+        <v>2585</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>40033</v>
+        <v>45582</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>6754</v>
+        <v>7428</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>15.04</v>
+        <v>16.86</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2433,22 +2433,22 @@
         <v>27</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2564</v>
+        <v>2556</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>58466</v>
+        <v>65891</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8150</v>
+        <v>8868</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>22.8</v>
+        <v>25.78</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2462,22 +2462,22 @@
         <v>29</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>34497</v>
+        <v>38435</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>6241</v>
+        <v>6541</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>15.6</v>
+        <v>17.41</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2491,22 +2491,22 @@
         <v>51</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>2045</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>32130</v>
+        <v>36188</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>6146</v>
+        <v>6796</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>15.58</v>
+        <v>17.58</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2520,22 +2520,22 @@
         <v>27</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>37673</v>
+        <v>42650</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3442</v>
+        <v>3592</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>18.32</v>
+        <v>20.72</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2549,22 +2549,22 @@
         <v>27</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1784</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>22880</v>
+        <v>25321</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3709</v>
+        <v>3850</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>12.09</v>
+        <v>13.38</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2578,22 +2578,22 @@
         <v>29</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>18426</v>
+        <v>20305</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2790</v>
+        <v>2982</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>10.12</v>
+        <v>11.14</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2607,22 +2607,22 @@
         <v>51</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>30762</v>
+        <v>35082</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>4958</v>
+        <v>5756</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>18.48</v>
+        <v>21.16</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2636,22 +2636,22 @@
         <v>35</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>27052</v>
+        <v>31359</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2981</v>
+        <v>3425</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>16.83</v>
+        <v>19.6</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2665,22 +2665,22 @@
         <v>29</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1568</v>
+        <v>1577</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>49973</v>
+        <v>56026</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>6588</v>
+        <v>6937</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>31.87</v>
+        <v>35.53</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2694,22 +2694,22 @@
         <v>35</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1526</v>
+        <v>1541</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1424</v>
+        <v>1435</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>30534</v>
+        <v>34611</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2404</v>
+        <v>2616</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>20.01</v>
+        <v>22.46</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2723,22 +2723,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>31407</v>
+        <v>35620</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5135</v>
+        <v>5760</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>21.28</v>
+        <v>24.25</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2752,22 +2752,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1417</v>
+        <v>1439</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1281</v>
+        <v>1303</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>35568</v>
+        <v>40655</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>5120</v>
+        <v>6033</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>25.1</v>
+        <v>28.25</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2781,22 +2781,22 @@
         <v>51</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>46241</v>
+        <v>52216</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>6905</v>
+        <v>7521</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>35.79</v>
+        <v>40.32</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2810,22 +2810,22 @@
         <v>12</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>31042</v>
+        <v>35247</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4602</v>
+        <v>5146</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>26.6</v>
+        <v>30.15</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2839,22 +2839,22 @@
         <v>35</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>28192</v>
+        <v>32515</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2085</v>
+        <v>2218</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>24.47</v>
+        <v>28.3</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2868,22 +2868,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>35288</v>
+        <v>39662</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2922</v>
+        <v>3187</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>35.01</v>
+        <v>38.96</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2897,22 +2897,22 @@
         <v>35</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>20021</v>
+        <v>23190</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1725</v>
+        <v>1827</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>19.92</v>
+        <v>23.01</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2926,22 +2926,22 @@
         <v>27</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>28006</v>
+        <v>29573</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1364</v>
+        <v>1405</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>30.51</v>
+        <v>32.01</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2955,22 +2955,22 @@
         <v>14</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>23902</v>
+        <v>27208</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2401</v>
+        <v>2529</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>27.79</v>
+        <v>31.45</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2984,22 +2984,22 @@
         <v>27</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>29171</v>
+        <v>32640</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>2767</v>
+        <v>3058</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>35.66</v>
+        <v>39.95</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3019,16 +3019,16 @@
         <v>737</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>45768</v>
+        <v>51634</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3778</v>
+        <v>4175</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>56.36</v>
+        <v>63.59</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3045,19 +3045,19 @@
         <v>780</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>20057</v>
+        <v>23692</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1541</v>
+        <v>1740</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>25.71</v>
+        <v>30.37</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3071,22 +3071,22 @@
         <v>29</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>11768</v>
+        <v>13161</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1433</v>
+        <v>1515</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>16.62</v>
+        <v>18.64</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3103,19 +3103,19 @@
         <v>687</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>24398</v>
+        <v>27217</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3480</v>
+        <v>3797</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>35.51</v>
+        <v>39.62</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3129,22 +3129,22 @@
         <v>35</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>11641</v>
+        <v>13660</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1113</v>
+        <v>1225</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>17.07</v>
+        <v>19.91</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3158,22 +3158,22 @@
         <v>27</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>22066</v>
+        <v>24341</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>2382</v>
+        <v>2594</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>32.64</v>
+        <v>35.85</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3187,22 +3187,22 @@
         <v>29</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>14969</v>
+        <v>16247</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1978</v>
+        <v>2104</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>22.68</v>
+        <v>24.51</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3219,19 +3219,19 @@
         <v>647</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>13564</v>
+        <v>15803</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1336</v>
+        <v>1509</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>20.96</v>
+        <v>24.43</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3245,22 +3245,22 @@
         <v>51</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>602</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>14296</v>
+        <v>16213</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>2894</v>
+        <v>3275</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>22.51</v>
+        <v>25.61</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3271,25 +3271,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>18426</v>
+        <v>12413</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>4285</v>
+        <v>1415</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>29.39</v>
+        <v>19.67</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3303,22 +3303,22 @@
         <v>51</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>20701</v>
+        <v>21353</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3380</v>
+        <v>5190</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>34.1</v>
+        <v>33.89</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3329,25 +3329,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>11262</v>
+        <v>22945</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1326</v>
+        <v>3718</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>18.65</v>
+        <v>37.43</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3361,22 +3361,22 @@
         <v>51</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>14143</v>
+        <v>16305</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1983</v>
+        <v>2307</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>24.99</v>
+        <v>28.66</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3390,22 +3390,22 @@
         <v>27</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>490</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>18822</v>
+        <v>21060</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1316</v>
+        <v>1423</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>35.72</v>
+        <v>39.74</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3419,22 +3419,22 @@
         <v>29</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>502</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>2598</v>
+        <v>2887</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>5.09</v>
+        <v>5.68</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3445,25 +3445,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>7119</v>
+        <v>13690</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1163</v>
+        <v>1000</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>14.74</v>
+        <v>27.83</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3474,25 +3474,25 @@
         <v>107</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>12161</v>
+        <v>8171</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>942</v>
+        <v>1391</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>25.71</v>
+        <v>16.88</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3509,19 +3509,19 @@
         <v>439</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>6865</v>
+        <v>6462</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>15.64</v>
+        <v>14.72</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3535,22 +3535,22 @@
         <v>29</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>5636</v>
+        <v>7749</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>12.87</v>
+        <v>17.65</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3564,22 +3564,22 @@
         <v>35</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>7728</v>
+        <v>8503</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>19.37</v>
+        <v>21.36</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3593,22 +3593,22 @@
         <v>51</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>11046</v>
+        <v>12517</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1271</v>
+        <v>1392</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>29.61</v>
+        <v>33.38</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3619,25 +3619,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>7009</v>
+        <v>5494</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>596</v>
+        <v>835</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>19.05</v>
+        <v>14.85</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3648,25 +3648,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>4790</v>
+        <v>7849</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>685</v>
+        <v>639</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>13.09</v>
+        <v>21.33</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3680,22 +3680,22 @@
         <v>27</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>335</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>11026</v>
+        <v>12366</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1337</v>
+        <v>1497</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>31.5</v>
+        <v>35.23</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3715,16 +3715,16 @@
         <v>323</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>6176</v>
+        <v>7192</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>577</v>
+        <v>729</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>18.01</v>
+        <v>20.97</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3738,22 +3738,22 @@
         <v>27</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5803</v>
+        <v>6661</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>18.31</v>
+        <v>20.62</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3767,22 +3767,22 @@
         <v>27</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>272</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>20583</v>
+        <v>23138</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1651</v>
+        <v>1760</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>67.71</v>
+        <v>76.36</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3802,16 +3802,16 @@
         <v>259</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>9934</v>
+        <v>11025</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1393</v>
+        <v>1479</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>32.79</v>
+        <v>36.39</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3825,22 +3825,22 @@
         <v>51</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>279</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>7840</v>
+        <v>9284</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>26.49</v>
+        <v>31.26</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3854,22 +3854,22 @@
         <v>51</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>7019</v>
+        <v>8109</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>23.96</v>
+        <v>27.49</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3880,25 +3880,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>6457</v>
+        <v>8050</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>930</v>
+        <v>559</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>22.34</v>
+        <v>27.66</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>135</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3909,25 +3909,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>6994</v>
+        <v>7157</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>531</v>
+        <v>979</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>24.2</v>
+        <v>24.85</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3947,16 +3947,16 @@
         <v>260</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5886</v>
+        <v>6833</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>21.17</v>
+        <v>24.58</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3967,25 +3967,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>275</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4067</v>
+        <v>6119</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>230</v>
+        <v>452</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>14.79</v>
+        <v>22.25</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3999,22 +3999,22 @@
         <v>35</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>5104</v>
+        <v>4614</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>522</v>
+        <v>243</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>18.63</v>
+        <v>16.9</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4025,25 +4025,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>5278</v>
+        <v>5785</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>417</v>
+        <v>568</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>19.62</v>
+        <v>21.35</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4063,16 +4063,16 @@
         <v>252</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>6176</v>
+        <v>6764</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>23.85</v>
+        <v>26.12</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4086,22 +4086,22 @@
         <v>51</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>243</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>6488</v>
+        <v>7094</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>848</v>
+        <v>895</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>25.34</v>
+        <v>27.82</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4115,22 +4115,22 @@
         <v>27</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>8432</v>
+        <v>9545</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>36.34</v>
+        <v>40.79</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4144,22 +4144,22 @@
         <v>12</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>219</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>7847</v>
+        <v>9223</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>599</v>
+        <v>704</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>34.88</v>
+        <v>41.17</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4173,22 +4173,22 @@
         <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>6172</v>
+        <v>6954</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>968</v>
+        <v>1089</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>27.93</v>
+        <v>31.32</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4208,16 +4208,16 @@
         <v>201</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>4981</v>
+        <v>5662</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>927</v>
+        <v>991</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>23.61</v>
+        <v>26.83</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4228,25 +4228,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E117" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>7957</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="I117" s="0" t="n">
         <v>185</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>7226</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>35.95</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4257,25 +4257,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>6833</v>
+        <v>7838</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>395</v>
+        <v>783</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>35.04</v>
+        <v>39</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4289,22 +4289,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>169</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>4820</v>
+        <v>5643</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>25.24</v>
+        <v>29.7</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4318,22 +4318,22 @@
         <v>51</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2562</v>
+        <v>2967</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>13.92</v>
+        <v>15.95</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4347,22 +4347,22 @@
         <v>51</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>159</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4077</v>
+        <v>4597</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>24.12</v>
+        <v>27.36</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4382,16 +4382,16 @@
         <v>142</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3560</v>
+        <v>3957</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>23.42</v>
+        <v>26.03</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4405,22 +4405,22 @@
         <v>12</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E123" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>6855</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I123" s="0" t="n">
         <v>142</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>6199</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>657</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4440,16 +4440,16 @@
         <v>122</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>3104</v>
+        <v>3464</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>23.34</v>
+        <v>26.05</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4469,16 +4469,16 @@
         <v>126</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>4530</v>
+        <v>5101</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>34.85</v>
+        <v>39.24</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4492,22 +4492,22 @@
         <v>51</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>109</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>4695</v>
+        <v>5086</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>39.45</v>
+        <v>43.1</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4527,16 +4527,16 @@
         <v>112</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>3924</v>
+        <v>4426</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>33.54</v>
+        <v>37.83</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4556,16 +4556,16 @@
         <v>96</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>13524</v>
+        <v>14576</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>131.3</v>
+        <v>141.51</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4579,22 +4579,22 @@
         <v>12</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>78</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2007</v>
+        <v>2287</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>19.87</v>
+        <v>22.42</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4605,25 +4605,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E130" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E130" s="0" t="n">
-        <v>93</v>
-      </c>
       <c r="F130" s="0" t="n">
-        <v>3297</v>
+        <v>3365</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>33.3</v>
+        <v>33.65</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4634,25 +4634,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2922</v>
+        <v>2574</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>29.52</v>
+        <v>26.27</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4663,7 +4663,7 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>98</v>
@@ -4672,16 +4672,16 @@
         <v>93</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>2183</v>
+        <v>3650</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>22.28</v>
+        <v>37.24</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4701,16 +4701,16 @@
         <v>90</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3408</v>
+        <v>3781</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>35.13</v>
+        <v>38.98</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4724,22 +4724,22 @@
         <v>29</v>
       </c>
       <c r="D134" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E134" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>94</v>
-      </c>
       <c r="F134" s="0" t="n">
-        <v>954</v>
+        <v>1054</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>10.04</v>
+        <v>10.98</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4753,22 +4753,22 @@
         <v>27</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1307</v>
+        <v>1475</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>14.36</v>
+        <v>15.86</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4782,22 +4782,22 @@
         <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1995</v>
+        <v>2303</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>22.67</v>
+        <v>25.88</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4808,25 +4808,25 @@
         <v>153</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1986</v>
+        <v>2917</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>22.57</v>
+        <v>33.92</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4837,25 +4837,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2640</v>
+        <v>2146</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>30.34</v>
+        <v>24.95</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4866,25 +4866,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>3667</v>
+        <v>2096</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>43.65</v>
+        <v>25.25</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4895,25 +4895,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1857</v>
+        <v>3793</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>22.37</v>
+        <v>46.26</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4933,16 +4933,16 @@
         <v>75</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1724</v>
+        <v>1955</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>22.39</v>
+        <v>25.39</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4956,22 +4956,22 @@
         <v>51</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>55</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1614</v>
+        <v>1719</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>22.42</v>
+        <v>24.21</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4991,16 +4991,16 @@
         <v>66</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1496</v>
+        <v>1731</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>21.37</v>
+        <v>24.73</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5020,16 +5020,16 @@
         <v>64</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1037</v>
+        <v>1191</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>15.03</v>
+        <v>17.26</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5043,22 +5043,22 @@
         <v>27</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1812</v>
+        <v>1990</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>26.65</v>
+        <v>29.7</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5078,16 +5078,16 @@
         <v>63</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1721</v>
+        <v>1900</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>25.69</v>
+        <v>28.36</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5098,25 +5098,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1527</v>
+        <v>1793</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>23.49</v>
+        <v>27.17</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5127,25 +5127,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1572</v>
+        <v>1726</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>25.35</v>
+        <v>26.55</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5165,16 +5165,16 @@
         <v>60</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2880</v>
+        <v>3241</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>46.45</v>
+        <v>52.27</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5194,16 +5194,16 @@
         <v>56</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1474</v>
+        <v>1618</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>24.16</v>
+        <v>26.52</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5217,22 +5217,22 @@
         <v>14</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1923</v>
+        <v>1963</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>186</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>32.05</v>
+        <v>33.27</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5243,25 +5243,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>56</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>620</v>
+        <v>1826</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>11.07</v>
+        <v>32.61</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5272,25 +5272,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>56</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1543</v>
+        <v>704</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>27.55</v>
+        <v>12.57</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5304,22 +5304,22 @@
         <v>51</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>47</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1667</v>
+        <v>1843</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>33.34</v>
+        <v>37.61</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5339,16 +5339,16 @@
         <v>46</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1263</v>
+        <v>1420</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>26.87</v>
+        <v>30.21</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5368,16 +5368,16 @@
         <v>39</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>788</v>
+        <v>860</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>18.76</v>
+        <v>20.48</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5388,25 +5388,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1148</v>
+        <v>888</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>28.7</v>
+        <v>22.2</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5417,25 +5417,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>808</v>
+        <v>1285</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>20.2</v>
+        <v>32.13</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5455,16 +5455,16 @@
         <v>34</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>868</v>
+        <v>966</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>21.7</v>
+        <v>24.15</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5475,25 +5475,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>2022</v>
+        <v>3124</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>53.21</v>
+        <v>82.21</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5504,25 +5504,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>2589</v>
+        <v>2174</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>68.13</v>
+        <v>58.76</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5542,16 +5542,16 @@
         <v>34</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>13.64</v>
+        <v>15.44</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5565,22 +5565,22 @@
         <v>27</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>2406</v>
+        <v>2536</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>66.83</v>
+        <v>72.46</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5600,16 +5600,16 @@
         <v>34</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>805</v>
+        <v>890</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>23.68</v>
+        <v>26.18</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5629,16 +5629,16 @@
         <v>29</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1546</v>
+        <v>1640</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>48.31</v>
+        <v>51.25</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5658,16 +5658,16 @@
         <v>30</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>13.25</v>
+        <v>14.81</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5681,22 +5681,22 @@
         <v>51</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1486</v>
+        <v>1635</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>46.44</v>
+        <v>52.74</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5716,16 +5716,16 @@
         <v>28</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>967</v>
+        <v>1048</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>33.34</v>
+        <v>36.14</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5736,25 +5736,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D169" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E169" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E169" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="F169" s="0" t="n">
-        <v>614</v>
+        <v>936</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>23.62</v>
+        <v>34.67</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5765,25 +5765,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>26</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>801</v>
+        <v>692</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>30.81</v>
+        <v>25.63</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5803,16 +5803,16 @@
         <v>26</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>723</v>
+        <v>799</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>27.81</v>
+        <v>30.73</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5832,16 +5832,16 @@
         <v>24</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>592</v>
+        <v>707</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>22.77</v>
+        <v>27.19</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5861,16 +5861,16 @@
         <v>21</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>19.24</v>
+        <v>21.64</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5890,16 +5890,16 @@
         <v>23</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>18.92</v>
+        <v>21.88</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5919,16 +5919,16 @@
         <v>24</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>685</v>
+        <v>753</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>28.54</v>
+        <v>31.38</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5939,25 +5939,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>285</v>
+        <v>619</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>11.88</v>
+        <v>26.91</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5971,22 +5971,22 @@
         <v>51</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>763</v>
+        <v>662</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>33.17</v>
+        <v>30.09</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5997,25 +5997,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>547</v>
+        <v>835</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>23.78</v>
+        <v>37.95</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6026,25 +6026,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>585</v>
+        <v>302</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>26.59</v>
+        <v>14.38</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6055,25 +6055,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1196</v>
+        <v>262</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>62.95</v>
+        <v>13.79</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6084,25 +6084,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>238</v>
+        <v>1420</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>12.53</v>
+        <v>74.74</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6113,7 +6113,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>18</v>
@@ -6122,16 +6122,16 @@
         <v>18</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>896</v>
+        <v>535</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>49.78</v>
+        <v>29.72</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6142,25 +6142,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>444</v>
+        <v>996</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>24.67</v>
+        <v>55.33</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6171,25 +6171,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>26.78</v>
+        <v>28.17</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6200,25 +6200,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>22.67</v>
+        <v>18.94</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6229,25 +6229,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>28.19</v>
+        <v>26.25</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6258,25 +6258,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>766</v>
+        <v>496</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>47.88</v>
+        <v>31</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6293,19 +6293,19 @@
         <v>16</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>17.69</v>
+        <v>8.5</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6316,25 +6316,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>120</v>
+        <v>878</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>8</v>
+        <v>58.53</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6345,25 +6345,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>33.08</v>
+        <v>42</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6380,19 +6380,19 @@
         <v>12</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>1</v>
+        <v>40.17</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6403,25 +6403,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>35.5</v>
+        <v>1</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6441,16 +6441,16 @@
         <v>11</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>18.09</v>
+        <v>20</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6470,16 +6470,16 @@
         <v>9</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>33.45</v>
+        <v>37.36</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6493,22 +6493,22 @@
         <v>27</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>69</v>
+        <v>457</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>6.9</v>
+        <v>41.55</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6519,25 +6519,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>41.1</v>
+        <v>9.9</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6548,25 +6548,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E197" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="G197" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F197" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="H197" s="0" t="n">
-        <v>15.7</v>
+        <v>13.6</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6577,25 +6577,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6606,25 +6606,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>11.8</v>
+        <v>6.6</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6638,19 +6638,19 @@
         <v>27</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>15.44</v>
+        <v>7.4</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>30</v>
@@ -6664,7 +6664,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>9</v>
@@ -6673,16 +6673,16 @@
         <v>8</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>6.11</v>
+        <v>16.67</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6702,16 +6702,16 @@
         <v>9</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>28</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>31.78</v>
+        <v>34</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6722,7 +6722,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>9</v>
@@ -6731,16 +6731,16 @@
         <v>9</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>6.33</v>
+        <v>13.78</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6751,7 +6751,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>9</v>
@@ -6760,16 +6760,16 @@
         <v>9</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6780,25 +6780,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F205" s="0" t="n">
-        <v>127</v>
-      </c>
       <c r="G205" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>15.88</v>
+        <v>1</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6809,25 +6809,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>0.75</v>
+        <v>9.13</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6838,7 +6838,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>8</v>
@@ -6847,16 +6847,16 @@
         <v>8</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>8.75</v>
+        <v>16.75</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6876,16 +6876,16 @@
         <v>7</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>19.43</v>
+        <v>29.71</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6896,25 +6896,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>15.71</v>
+        <v>39.43</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6925,25 +6925,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>26.71</v>
+        <v>19</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6963,16 +6963,16 @@
         <v>7</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>36.43</v>
+        <v>23</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6983,7 +6983,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>6</v>
@@ -6992,16 +6992,16 @@
         <v>6</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>33.67</v>
+        <v>2.83</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7012,7 +7012,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>6</v>
@@ -7021,16 +7021,16 @@
         <v>6</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>16.5</v>
+        <v>37.17</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7041,7 +7041,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>6</v>
@@ -7050,16 +7050,16 @@
         <v>6</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>2.67</v>
+        <v>19</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7079,16 +7079,16 @@
         <v>5</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7108,16 +7108,16 @@
         <v>5</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>23.2</v>
+        <v>26</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7146,7 +7146,7 @@
         <v>5.75</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7166,16 +7166,16 @@
         <v>4</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7195,16 +7195,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>30.67</v>
+        <v>32.67</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7224,16 +7224,16 @@
         <v>2</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>16.5</v>
+        <v>138.5</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7253,16 +7253,16 @@
         <v>2</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7273,25 +7273,25 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>113.5</v>
+        <v>2.5</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7311,16 +7311,16 @@
         <v>2</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7331,22 +7331,22 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>2.5</v>
+        <v>37</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>28</v>
@@ -7360,7 +7360,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>2</v>
@@ -7369,16 +7369,16 @@
         <v>2</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7398,16 +7398,16 @@
         <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7447,7 +7447,7 @@
         <v>244</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>1</v>
@@ -7456,16 +7456,16 @@
         <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7476,7 +7476,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
@@ -7485,16 +7485,16 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
